--- a/biology/Médecine/Jean-Jacques_Moscovitz/Jean-Jacques_Moscovitz.xlsx
+++ b/biology/Médecine/Jean-Jacques_Moscovitz/Jean-Jacques_Moscovitz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Jacques Moscovitz est un psychanalyste et psychiatre français, né en 1939.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ancien interne des hôpitaux psychiatriques de la Seine, il se forme à la Société psychanalytique de Paris, puis est membre de l'École freudienne de Paris. 
-Jean-Jacques Moscovitz est membre fondateur de l'association Psychanalyse actuelle[1] et membre d'Espace Analytique[2].
-Jean-Jacques Moscovitz est également membre fondateur et animateur du groupe Le Regard Qui Bat[3] (cinéma et psychanalyse)
+Jean-Jacques Moscovitz est membre fondateur de l'association Psychanalyse actuelle et membre d'Espace Analytique.
+Jean-Jacques Moscovitz est également membre fondateur et animateur du groupe Le Regard Qui Bat (cinéma et psychanalyse)
 Praticien de la  psychanalyse depuis 1970, Jean-Jacques Moscovitz est auteur de plusieurs ouvrages et d'articles consacrés pour une grande part aux effets au niveau psycho-individuel de la rupture de l’Histoire dans la Shoah. Il participe également à des  débats sur Israël, il s'intéresse au lien entre judaïsme et psychanalyse, notamment par l’impact que leur impose et les fait se rencontrer la destruction des juifs d’Europe. 
 Il a écrit plusieurs ouvrages ou articles d'analyse psychanalytique du cinéma, dont un livre consacré à Steven Spielberg.
 </t>
@@ -546,16 +560,52 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Une psychanalyse pourquoi faire ?, édition Grancher 1988 (réédition en septembre 2006)
 D’où viennent les parents ? Psychanalyse depuis la Shoah?, coédition Penta-L’Harmattan, collection "Psychanalyse, Médecine, Société" dirigée par Abram Coen, septembre 2007
 Hypothèse Amour (entre intime et politique), édition Calman-Lévy 2001
 Psychanalyse d'un président,  éditions L'Archipel 2008
 Lettre d’un psychanalyste à Steven Spielberg, Papier Sensible Editions 2013
-Rêver de réparer l'histoire... Entre Psychanalyse et cinéma, collection Le regard qui bat, Éditions Érès, 2015
-Collectif
-Du cinéma à la psychanalyse, le féminin interrogé, collection Le regard qui bat, Éditions Érès, 2013
+Rêver de réparer l'histoire... Entre Psychanalyse et cinéma, collection Le regard qui bat, Éditions Érès, 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jean-Jacques_Moscovitz</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Jacques_Moscovitz</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Collectif</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Du cinéma à la psychanalyse, le féminin interrogé, collection Le regard qui bat, Éditions Érès, 2013
 Codirection avec Vannina Micheli-Rechtman et écriture de auteur de deux chapitres (« Le féminin entre désir d'analyste, cinéma, histoire » et « Les femmes de Fellini ou le Fellini des femmes. En bref, l'homme Fellini »)</t>
         </is>
       </c>
